--- a/src/main/java/com/konnect/testdata/Groups and Project Update.xlsx
+++ b/src/main/java/com/konnect/testdata/Groups and Project Update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11175" windowHeight="1680" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11175" windowHeight="1680" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NewGroups" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,9 @@
     <sheet name="NewProject" sheetId="3" r:id="rId3"/>
     <sheet name="ProjectLinksCreation" sheetId="7" r:id="rId4"/>
     <sheet name="ProjectTaskCreation" sheetId="8" r:id="rId5"/>
-    <sheet name="ProjectNotesCreation" sheetId="6" r:id="rId6"/>
+    <sheet name="UpdateMyNotes" sheetId="9" r:id="rId6"/>
+    <sheet name="ProjectNotesCreation" sheetId="6" r:id="rId7"/>
+    <sheet name="MyNotesUpdate" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>Groupname</t>
   </si>
@@ -186,6 +188,42 @@
   </si>
   <si>
     <t>AutomationChrome1</t>
+  </si>
+  <si>
+    <t>NotesTitle</t>
+  </si>
+  <si>
+    <t>Selenium Test in Edge.</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>SourceNote</t>
+  </si>
+  <si>
+    <t>https://gtdataqa.ikonnectplus.com/</t>
+  </si>
+  <si>
+    <t>My Notes</t>
+  </si>
+  <si>
+    <t>Content Portal</t>
+  </si>
+  <si>
+    <t>Konnectplus3</t>
+  </si>
+  <si>
+    <t>ExistingTag</t>
+  </si>
+  <si>
+    <t>Konnectplus33</t>
+  </si>
+  <si>
+    <t>CreateNewMyNotesTag</t>
+  </si>
+  <si>
+    <t>GTKonnect13</t>
   </si>
 </sst>
 </file>
@@ -209,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +269,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -294,6 +338,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -676,7 +727,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -922,6 +973,34 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -984,4 +1063,68 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/konnect/testdata/Groups and Project Update.xlsx
+++ b/src/main/java/com/konnect/testdata/Groups and Project Update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11175" windowHeight="1680" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11175" windowHeight="1680" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="NewGroups" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="UpdateMyNotes" sheetId="9" r:id="rId6"/>
     <sheet name="ProjectNotesCreation" sheetId="6" r:id="rId7"/>
     <sheet name="MyNotesUpdate" sheetId="10" r:id="rId8"/>
+    <sheet name="MyLinksUpdate" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>Groupname</t>
   </si>
@@ -224,6 +225,30 @@
   </si>
   <si>
     <t>GTKonnect13</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Newtag</t>
+  </si>
+  <si>
+    <t>Creations of all the links related to konnect portal</t>
+  </si>
+  <si>
+    <t>Links1</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>ECCN Links ECCN1</t>
   </si>
 </sst>
 </file>
@@ -247,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -346,6 +377,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -845,7 +878,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,4 +1160,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/konnect/testdata/Groups and Project Update.xlsx
+++ b/src/main/java/com/konnect/testdata/Groups and Project Update.xlsx
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
